--- a/Project Management/Verification and validation plan.xlsx
+++ b/Project Management/Verification and validation plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uweacuk-my.sharepoint.com/personal/dominic2_pennycook_live_uwe_ac_uk/Documents/Year 3/GDIP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\UNI\Year 3\GDIP\GDIP_ROBOT\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="359" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4673E6ED-36AE-40BA-B2C7-52906569FC8F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45B3EB4-7274-422B-A5C8-EAB522B014AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="86">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Possibility to run code in app</t>
+  </si>
+  <si>
+    <t>Robot price competative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A financial plan is produced </t>
   </si>
 </sst>
 </file>
@@ -472,9 +478,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -486,12 +489,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,12 +504,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,10 +576,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -876,7 +878,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,46 +895,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="19" t="s">
         <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -941,9 +943,9 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="18"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -962,8 +964,8 @@
       <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="11"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="2"/>
       <c r="M3" s="1" t="s">
         <v>6</v>
@@ -973,7 +975,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
@@ -1009,7 +1011,7 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
@@ -1045,7 +1047,7 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C6" t="s">
@@ -1068,7 +1070,7 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
@@ -1095,20 +1097,20 @@
       <c r="J7" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
     </row>
     <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C8" t="s">
@@ -1135,20 +1137,20 @@
       <c r="J8" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C9" t="s">
@@ -1171,7 +1173,7 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C10" t="s">
@@ -1203,7 +1205,7 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C11" t="s">
@@ -1226,7 +1228,7 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C12" t="s">
@@ -1258,7 +1260,7 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C13" t="s">
@@ -1281,7 +1283,7 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C14" t="s">
@@ -1304,7 +1306,7 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C15" t="s">
@@ -1331,20 +1333,20 @@
       <c r="J15" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C16" t="s">
@@ -1367,19 +1369,33 @@
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1408,45 +1424,45 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="14"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="17"/>
     </row>
     <row r="33" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J33" s="16" t="s">
+      <c r="J33" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="L33" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M33" s="17" t="s">
+      <c r="M33" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="9:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="M34" s="20" t="s">
+      <c r="M34" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1501,7 +1517,7 @@
   <dimension ref="A2:G44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,6 +1876,9 @@
       <c r="B42" t="s">
         <v>23</v>
       </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">

--- a/Project Management/Verification and validation plan.xlsx
+++ b/Project Management/Verification and validation plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\UNI\Year 3\GDIP\GDIP_ROBOT\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45B3EB4-7274-422B-A5C8-EAB522B014AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F732FF-D136-4EF6-ABE3-DCDD08F62BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Everyone collaborated on the new gripper design</t>
   </si>
   <si>
-    <t>Below Budget</t>
-  </si>
-  <si>
     <t>James</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>Measures and moves resistor within 10 seconds</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>James &amp; Saad</t>
   </si>
   <si>
@@ -292,6 +286,15 @@
   </si>
   <si>
     <t xml:space="preserve">A financial plan is produced </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stakeholder sign off </t>
+  </si>
+  <si>
+    <t>UWE fet team</t>
+  </si>
+  <si>
+    <t>Robot Cost XX</t>
   </si>
 </sst>
 </file>
@@ -875,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,13 +893,13 @@
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -910,8 +913,9 @@
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -919,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>2</v>
@@ -934,15 +938,18 @@
       <c r="J2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="20"/>
       <c r="C3" s="18"/>
@@ -965,13 +972,14 @@
         <v>10</v>
       </c>
       <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="1" t="s">
+      <c r="K3" s="20"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1002,12 +1010,15 @@
       <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="1" t="s">
+      <c r="K4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1038,20 +1049,23 @@
       <c r="J5" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="1" t="s">
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>4.2</v>
@@ -1063,18 +1077,21 @@
         <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
       </c>
       <c r="D7">
         <v>3.1</v>
@@ -1097,24 +1114,27 @@
       <c r="J7" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="18"/>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
-    </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>3.2</v>
@@ -1137,21 +1157,24 @@
       <c r="J8" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="18"/>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -1168,16 +1191,19 @@
       <c r="J9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>4.4000000000000004</v>
@@ -1198,18 +1224,21 @@
         <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>1.5</v>
@@ -1223,16 +1252,19 @@
       <c r="J11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>3.3</v>
@@ -1253,18 +1285,21 @@
         <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>4.5</v>
@@ -1278,13 +1313,16 @@
       <c r="J13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -1301,16 +1339,19 @@
       <c r="J14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>2.2999999999999998</v>
@@ -1333,24 +1374,27 @@
       <c r="J15" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="18"/>
+      <c r="K15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16">
         <v>3.5</v>
@@ -1362,15 +1406,18 @@
         <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="K16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -1385,101 +1432,105 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I32" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="17"/>
-    </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="M32" s="16"/>
+      <c r="N32" s="17"/>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I33" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="10" t="s">
+      <c r="N33" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="10" t="s">
+    </row>
+    <row r="34" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M33" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="9:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I34" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="J34" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>66</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K34" s="13"/>
       <c r="L34" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="M34" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="K15:P15"/>
+  <mergeCells count="13">
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="L15:Q15"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L8:Q8"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F39 I4:I20 I24:I39">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Partial">
@@ -1494,7 +1545,7 @@
       <formula>NOT(ISERROR(SEARCH("None",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J16">
+  <conditionalFormatting sqref="J11:K16 J7:J10">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Partial">
       <formula>NOT(ISERROR(SEARCH("Partial",J7)))</formula>
     </cfRule>
@@ -1502,7 +1553,7 @@
       <formula>NOT(ISERROR(SEARCH("Full",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J16">
+  <conditionalFormatting sqref="J11:K16 J7:J10">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",J7)))</formula>
     </cfRule>
@@ -1590,7 +1641,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -1610,7 +1661,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -1627,7 +1678,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1673,7 +1724,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1684,7 +1735,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1743,7 +1794,7 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1754,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1765,7 +1816,7 @@
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1776,7 +1827,7 @@
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1787,7 +1838,7 @@
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1833,7 +1884,7 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1844,7 +1895,7 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1855,7 +1906,7 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1866,7 +1917,7 @@
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1877,7 +1928,7 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">

--- a/Project Management/Verification and validation plan.xlsx
+++ b/Project Management/Verification and validation plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\UNI\Year 3\GDIP\GDIP_ROBOT\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F732FF-D136-4EF6-ABE3-DCDD08F62BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7004B1-264D-4EA5-9675-3DA0C6121EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verification and Validation Mat" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="91">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -295,13 +295,25 @@
   </si>
   <si>
     <t>Robot Cost XX</t>
+  </si>
+  <si>
+    <t>Which Stakeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>UWE Fet Team</t>
+  </si>
+  <si>
+    <t>sn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +339,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -358,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -470,11 +490,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -501,12 +552,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,11 +570,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -880,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,50 +1009,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="24" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -950,9 +1061,9 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="23"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -971,9 +1082,9 @@
       <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="2"/>
       <c r="N3" s="1" t="s">
         <v>6</v>
@@ -1117,14 +1228,14 @@
       <c r="K7" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1160,14 +1271,14 @@
       <c r="K8" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1377,14 +1488,14 @@
       <c r="K15" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1412,7 +1523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1432,93 +1543,128 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J19" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I32" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="17"/>
+      <c r="J24" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I32" s="17"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="19"/>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I33" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N33" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I34" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="N34" s="14" t="s">
-        <v>64</v>
-      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="J19:O19"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="L15:Q15"/>
     <mergeCell ref="J2:J3"/>
@@ -1533,29 +1679,42 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F39 I4:I20 I24:I39">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Partial">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="Partial">
       <formula>NOT(ISERROR(SEARCH("Partial",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Full">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Full">
       <formula>NOT(ISERROR(SEARCH("Full",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F59 I4:I20 I24:I48">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K16 J7:J10">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Partial">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Partial">
       <formula>NOT(ISERROR(SEARCH("Partial",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Full">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Full">
       <formula>NOT(ISERROR(SEARCH("Full",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K16 J7:J10">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",J7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J21">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Partial">
+      <formula>NOT(ISERROR(SEARCH("Partial",J19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Full">
+      <formula>NOT(ISERROR(SEARCH("Full",J19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J21">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",J19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1565,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DB9172-D8EC-4DC1-9900-127C73A49F4F}">
-  <dimension ref="A2:G44"/>
+  <dimension ref="A2:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,9 +1736,11 @@
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1593,7 +1754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
@@ -1613,7 +1774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.2</v>
       </c>
@@ -1633,7 +1794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.3</v>
       </c>
@@ -1653,7 +1814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.4</v>
       </c>
@@ -1670,7 +1831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.5</v>
       </c>
@@ -1681,273 +1842,230 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3.1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3.2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3.4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3.5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4.2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2.2000000000000002</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2.2999999999999998</v>
+        <v>4.5</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2.5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2.6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2.7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2.8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2.9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>3.1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3.2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>3.3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3.4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3.5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3.6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>3.7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>3.8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B37" t="s">
         <v>23</v>
       </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>4.2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>4.3</v>
-      </c>
-      <c r="B39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>4.5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="C21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>4.7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>4.8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E11:J11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E11:E13">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Partial">
+      <formula>NOT(ISERROR(SEARCH("Partial",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Full">
+      <formula>NOT(ISERROR(SEARCH("Full",E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E13">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project Management/Verification and validation plan.xlsx
+++ b/Project Management/Verification and validation plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\UNI\Year 3\GDIP\GDIP_ROBOT\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7004B1-264D-4EA5-9675-3DA0C6121EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C3F21C-24DB-4BB1-A112-AF54B95E511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verification and Validation Mat" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="90">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>UWE Fet Team</t>
-  </si>
-  <si>
-    <t>sn</t>
   </si>
 </sst>
 </file>
@@ -378,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -490,42 +487,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -555,20 +521,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -579,12 +536,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,50 +970,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -1061,9 +1022,9 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="22"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -1082,9 +1043,9 @@
       <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="24"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="2"/>
       <c r="N3" s="1" t="s">
         <v>6</v>
@@ -1228,14 +1189,14 @@
       <c r="K7" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1271,14 +1232,14 @@
       <c r="K8" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1488,14 +1449,14 @@
       <c r="K15" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1554,14 +1515,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="21"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1625,42 +1586,36 @@
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="K24" s="30" t="s">
+      <c r="K24" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="19"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="11"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I34" s="20"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1726,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DB9172-D8EC-4DC1-9900-127C73A49F4F}">
   <dimension ref="A2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,14 +1840,14 @@
       <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1986,10 +1941,10 @@
       <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="18" t="s">
         <v>89</v>
       </c>
     </row>

--- a/Project Management/Verification and validation plan.xlsx
+++ b/Project Management/Verification and validation plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\UNI\Year 3\GDIP\GDIP_ROBOT\Project Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\Year 3\GDIP\Github\GDIP_ROBOT\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C3F21C-24DB-4BB1-A112-AF54B95E511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E49487-BB49-4ED6-9E38-AFA936A00974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verification and Validation Mat" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="100">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -114,9 +114,6 @@
     <t xml:space="preserve">Minimum Working Envolope </t>
   </si>
   <si>
-    <t>Saad &amp; John</t>
-  </si>
-  <si>
     <t>Pulling Arm out to 50cm</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>University</t>
   </si>
   <si>
-    <t>John &amp; Dominic</t>
-  </si>
-  <si>
     <t>3D printing redesigned parts</t>
   </si>
   <si>
@@ -153,18 +147,12 @@
     <t>James</t>
   </si>
   <si>
-    <t>James &amp; Emre</t>
-  </si>
-  <si>
     <t>Everyone agreed and signed off on all orders, documentation was kept</t>
   </si>
   <si>
     <t>Measures and moves resistor within 10 seconds</t>
   </si>
   <si>
-    <t>James &amp; Saad</t>
-  </si>
-  <si>
     <t>Lead team member's</t>
   </si>
   <si>
@@ -195,9 +183,6 @@
     <t>Factor of saftey: 1</t>
   </si>
   <si>
-    <t>Emre &amp; Dom</t>
-  </si>
-  <si>
     <t>No parts broke due to stress or use</t>
   </si>
   <si>
@@ -207,9 +192,6 @@
     <t>Be ablt to lift 267mg</t>
   </si>
   <si>
-    <t>Dom &amp; James</t>
-  </si>
-  <si>
     <t>Electromagnet can hold more than one resistor at a time to well over the 267mg required</t>
   </si>
   <si>
@@ -249,9 +231,6 @@
     <t>Health and saftey documentation</t>
   </si>
   <si>
-    <t xml:space="preserve">Emre  </t>
-  </si>
-  <si>
     <t>Document reviewed by all and meets standards</t>
   </si>
   <si>
@@ -276,9 +255,6 @@
     <t>Code can run and be sent using bluetooth</t>
   </si>
   <si>
-    <t>James &amp; Dominic</t>
-  </si>
-  <si>
     <t>Possibility to run code in app</t>
   </si>
   <si>
@@ -304,6 +280,60 @@
   </si>
   <si>
     <t>UWE Fet Team</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Electronics and Programming lead</t>
+  </si>
+  <si>
+    <t>Algorithmic and Mathematical Lead</t>
+  </si>
+  <si>
+    <t>3D Design Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Administrator </t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>AML</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>EPL</t>
+  </si>
+  <si>
+    <t>3DD</t>
+  </si>
+  <si>
+    <t>AML &amp; 3DD</t>
+  </si>
+  <si>
+    <t>PM &amp; 3DD</t>
+  </si>
+  <si>
+    <t>EPL &amp; TA</t>
+  </si>
+  <si>
+    <t>EPL &amp; AML</t>
+  </si>
+  <si>
+    <t>TA &amp; PM</t>
+  </si>
+  <si>
+    <t>PM &amp; EPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA  </t>
+  </si>
+  <si>
+    <t>EPL &amp; PM</t>
   </si>
 </sst>
 </file>
@@ -491,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -545,7 +575,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +996,7 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -971,7 +1006,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -995,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>2</v>
@@ -1011,10 +1046,10 @@
         <v>3</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>5</v>
@@ -1059,7 +1094,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>1.1000000000000001</v>
@@ -1068,22 +1103,22 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>2.1</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="1" t="s">
@@ -1095,10 +1130,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>4.0999999999999996</v>
@@ -1107,7 +1142,7 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>1.2</v>
@@ -1116,13 +1151,13 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="1" t="s">
@@ -1134,10 +1169,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="D6">
         <v>4.2</v>
@@ -1146,13 +1181,13 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1160,10 +1195,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D7">
         <v>3.1</v>
@@ -1172,7 +1207,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>1.3</v>
@@ -1181,16 +1216,16 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
@@ -1203,10 +1238,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="D8">
         <v>3.2</v>
@@ -1215,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>1.1000000000000001</v>
@@ -1224,16 +1259,16 @@
         <v>15</v>
       </c>
       <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
         <v>31</v>
       </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
@@ -1246,10 +1281,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>4.3</v>
@@ -1258,13 +1293,13 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1272,10 +1307,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D10">
         <v>4.4000000000000004</v>
@@ -1284,7 +1319,7 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>1.4</v>
@@ -1293,13 +1328,13 @@
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1307,10 +1342,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D11">
         <v>1.5</v>
@@ -1319,13 +1354,13 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1333,10 +1368,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D12">
         <v>3.3</v>
@@ -1345,22 +1380,22 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>2.2000000000000002</v>
       </c>
       <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
         <v>29</v>
       </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1368,10 +1403,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D13">
         <v>4.5</v>
@@ -1380,13 +1415,13 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1394,10 +1429,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>4.2</v>
@@ -1406,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1420,19 +1455,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="D15">
         <v>2.2999999999999998</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>3.4</v>
@@ -1441,16 +1476,16 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c r="J15" t="s">
-        <v>32</v>
-      </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
@@ -1463,10 +1498,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D16">
         <v>3.5</v>
@@ -1475,13 +1510,13 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1489,34 +1524,34 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>4.5999999999999996</v>
       </c>
       <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
         <v>29</v>
       </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>15</v>
-      </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
       <c r="B19" s="7"/>
+      <c r="E19" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>87</v>
+      </c>
       <c r="J19" s="19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
@@ -1525,97 +1560,106 @@
       <c r="O19" s="21"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>17</v>
+      <c r="E20" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>18</v>
+      <c r="E21" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>20</v>
+      <c r="E22" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>21</v>
-      </c>
       <c r="J24" s="17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1681,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DB9172-D8EC-4DC1-9900-127C73A49F4F}">
   <dimension ref="A2:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1761,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -1737,7 +1781,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -1757,7 +1801,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -1777,7 +1821,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -1794,7 +1838,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1805,7 +1849,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1816,7 +1860,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1827,7 +1871,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1838,10 +1882,10 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -1857,23 +1901,23 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1884,23 +1928,23 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1911,7 +1955,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1922,13 +1966,13 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1939,13 +1983,13 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1956,7 +2000,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1967,7 +2011,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1978,7 +2022,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1989,7 +2033,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2000,7 +2044,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
